--- a/output/test1.xlsx
+++ b/output/test1.xlsx
@@ -207,12 +207,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303003GMK125'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303003GMK125'!$B$2:$B$5</f>
+              <f>'EP2303003GMK125'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303003GMK125'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -295,12 +295,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$B$2:$B$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -327,12 +327,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$C$2:$C$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -359,12 +359,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$D$2:$D$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -391,12 +391,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$E$2:$E$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -423,12 +423,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$F$2:$F$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -455,12 +455,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$G$2:$G$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -487,12 +487,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$H$2:$H$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -519,12 +519,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$I$2:$I$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$I$2:$I$5</f>
             </numRef>
           </val>
         </ser>
@@ -551,12 +551,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$J$2:$J$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -583,12 +583,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303011GMK080'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303011GMK080'!$K$2:$K$4</f>
+              <f>'EP2303011GMK080'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303011GMK080'!$K$2:$K$5</f>
             </numRef>
           </val>
         </ser>
@@ -671,12 +671,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK042'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK042'!$B$2:$B$5</f>
+              <f>'EP2304005GMK042'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK042'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -703,12 +703,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK042'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK042'!$C$2:$C$5</f>
+              <f>'EP2304005GMK042'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK042'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -735,12 +735,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK042'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK042'!$D$2:$D$5</f>
+              <f>'EP2304005GMK042'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK042'!$D$2:$D$6</f>
             </numRef>
           </val>
         </ser>
@@ -767,12 +767,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK042'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK042'!$E$2:$E$5</f>
+              <f>'EP2304005GMK042'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK042'!$E$2:$E$6</f>
             </numRef>
           </val>
         </ser>
@@ -799,12 +799,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK042'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK042'!$F$2:$F$5</f>
+              <f>'EP2304005GMK042'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK042'!$F$2:$F$6</f>
             </numRef>
           </val>
         </ser>
@@ -831,12 +831,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK042'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK042'!$G$2:$G$5</f>
+              <f>'EP2304005GMK042'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK042'!$G$2:$G$6</f>
             </numRef>
           </val>
         </ser>
@@ -919,12 +919,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK048'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK048'!$B$2:$B$4</f>
+              <f>'EP2304005GMK048'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK048'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -951,12 +951,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK048'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK048'!$C$2:$C$4</f>
+              <f>'EP2304005GMK048'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK048'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -983,12 +983,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK048'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK048'!$D$2:$D$4</f>
+              <f>'EP2304005GMK048'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK048'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -1015,12 +1015,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2304005GMK048'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2304005GMK048'!$E$2:$E$4</f>
+              <f>'EP2304005GMK048'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2304005GMK048'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -1103,12 +1103,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2302093GMK115'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2302093GMK115'!$B$2:$B$4</f>
+              <f>'EP2302093GMK115'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2302093GMK115'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -1135,12 +1135,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2302093GMK115'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2302093GMK115'!$C$2:$C$4</f>
+              <f>'EP2302093GMK115'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2302093GMK115'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -1167,12 +1167,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2302093GMK115'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2302093GMK115'!$D$2:$D$4</f>
+              <f>'EP2302093GMK115'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2302093GMK115'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -1199,12 +1199,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2302093GMK115'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2302093GMK115'!$E$2:$E$4</f>
+              <f>'EP2302093GMK115'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2302093GMK115'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -1287,12 +1287,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2302093GMK141'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2302093GMK141'!$B$2:$B$4</f>
+              <f>'EP2302093GMK141'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2302093GMK141'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -1375,12 +1375,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2302093GMK142'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2302093GMK142'!$B$2:$B$4</f>
+              <f>'EP2302093GMK142'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2302093GMK142'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -1407,12 +1407,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2302093GMK142'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2302093GMK142'!$C$2:$C$4</f>
+              <f>'EP2302093GMK142'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2302093GMK142'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -1495,12 +1495,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK028'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK028'!$B$2:$B$4</f>
+              <f>'EP2303009GMK028'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK028'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -1527,12 +1527,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK028'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK028'!$C$2:$C$4</f>
+              <f>'EP2303009GMK028'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK028'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -1559,12 +1559,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK028'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK028'!$D$2:$D$4</f>
+              <f>'EP2303009GMK028'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK028'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -1591,12 +1591,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK028'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK028'!$E$2:$E$4</f>
+              <f>'EP2303009GMK028'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK028'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -1623,12 +1623,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK028'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK028'!$F$2:$F$4</f>
+              <f>'EP2303009GMK028'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK028'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -1655,12 +1655,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK028'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK028'!$G$2:$G$4</f>
+              <f>'EP2303009GMK028'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK028'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -1687,12 +1687,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK028'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK028'!$H$2:$H$4</f>
+              <f>'EP2303009GMK028'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK028'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -1775,12 +1775,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK125'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK125'!$B$2:$B$4</f>
+              <f>'EP2303009GMK125'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK125'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -1807,12 +1807,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK125'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK125'!$C$2:$C$4</f>
+              <f>'EP2303009GMK125'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK125'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -1839,12 +1839,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK125'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK125'!$D$2:$D$4</f>
+              <f>'EP2303009GMK125'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK125'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -1871,12 +1871,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK125'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK125'!$E$2:$E$4</f>
+              <f>'EP2303009GMK125'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK125'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -1903,12 +1903,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK125'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK125'!$F$2:$F$4</f>
+              <f>'EP2303009GMK125'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK125'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -1935,12 +1935,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK125'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK125'!$G$2:$G$4</f>
+              <f>'EP2303009GMK125'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK125'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -1967,12 +1967,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303009GMK125'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303009GMK125'!$H$2:$H$4</f>
+              <f>'EP2303009GMK125'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303009GMK125'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -2055,12 +2055,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$B$2:$B$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -2087,12 +2087,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$C$2:$C$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -2119,12 +2119,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$D$2:$D$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -2151,12 +2151,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$E$2:$E$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$E$2:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -2183,12 +2183,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$F$2:$F$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$F$2:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -2215,12 +2215,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$G$2:$G$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$G$2:$G$5</f>
             </numRef>
           </val>
         </ser>
@@ -2247,12 +2247,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$H$2:$H$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$H$2:$H$5</f>
             </numRef>
           </val>
         </ser>
@@ -2279,12 +2279,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$I$2:$I$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$I$2:$I$5</f>
             </numRef>
           </val>
         </ser>
@@ -2311,12 +2311,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EP2303016GMK020'!$A$2:$A$4</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EP2303016GMK020'!$J$2:$J$4</f>
+              <f>'EP2303016GMK020'!$A$2:$A$5</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EP2303016GMK020'!$J$2:$J$5</f>
             </numRef>
           </val>
         </ser>
@@ -2361,7 +2361,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2388,7 +2388,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2415,7 +2415,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2442,7 +2442,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2469,7 +2469,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2496,7 +2496,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2523,7 +2523,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2550,7 +2550,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2577,7 +2577,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2604,7 +2604,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -2932,7 +2932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3058,6 +3058,34 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3073,7 +3101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3227,6 +3255,40 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3242,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3410,6 +3472,43 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3425,7 +3524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3477,6 +3576,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3510,7 +3619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3647,6 +3756,31 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3662,7 +3796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3746,6 +3880,25 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3761,7 +3914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3845,6 +3998,25 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3860,7 +4032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3902,6 +4074,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3917,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3973,6 +4155,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,7 +4183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4117,6 +4312,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>20230529-T8</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
